--- a/data_excel/453.xlsx
+++ b/data_excel/453.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,9 +75,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>個</t>
   </si>
   <si>
@@ -112,13 +109,17 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +140,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -177,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -485,7 +494,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -570,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -583,8 +592,8 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -592,7 +601,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -601,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -612,13 +621,13 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -629,29 +638,29 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -662,7 +671,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
